--- a/data/trans_camb/P24_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>21,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>23,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>5,99</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,03</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 0,0</t>
+          <t>-16,32; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 10,94</t>
+          <t>-16,32; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 0,0</t>
+          <t>-16,32; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 16,18</t>
+          <t>-3,14; 22,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 22,48</t>
+          <t>2,03; 30,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 19,75</t>
+          <t>9,17; 35,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,56</t>
+          <t>-0,6; 21,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 12,97</t>
+          <t>8,66; 39,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 7,39</t>
+          <t>-1,48; 15,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 18,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 9,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 26,88</t>
         </is>
       </c>
     </row>
@@ -743,7 +797,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,32 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>241,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>160,59%</t>
+          <t>327,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>118,28%</t>
+          <t>533,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>238,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>128,77%</t>
+          <t>580,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>160,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>269,75%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>421,15%</t>
         </is>
       </c>
     </row>
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 523,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 658,95</t>
+          <t>-34,19; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 602,06</t>
+          <t>16,31; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 299,04</t>
+          <t>-48,71; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 491,36</t>
+          <t>27,87; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,45; 313,97</t>
+          <t>-63,17; 1140,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 1344,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-80,14; 713,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41,74; 1957,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>8,17</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 34,06</t>
+          <t>-1,25; 50,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 12,46</t>
+          <t>-6,47; 14,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 12,4</t>
+          <t>-8,19; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 16,09</t>
+          <t>-2,03; 49,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 13,01</t>
+          <t>-8,48; 9,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 13,44</t>
+          <t>-5,72; 14,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 21,21</t>
+          <t>-5,58; 15,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,35</t>
+          <t>-8,49; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 11,1</t>
+          <t>-1,56; 30,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 11,83</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 11,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 32,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>243,41%</t>
+          <t>267,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>108,21%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>119,26%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>116,29%</t>
+          <t>236,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,56%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>169,17%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102,38%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>112,46%</t>
+          <t>130,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>56,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>54,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>129,44%</t>
         </is>
       </c>
     </row>
@@ -1007,14 +1136,14 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-53,65; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-71,4; 1064,82</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1022,32 +1151,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 656,4</t>
+          <t>-57,56; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 514,13</t>
+          <t>-100,0; 470,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 559,94</t>
+          <t>-65,62; 793,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 875,3</t>
+          <t>-59,78; 703,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 404,85</t>
+          <t>-85,97; 617,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 455,32</t>
+          <t>-31,9; 1087,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-44,87; 466,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-42,12; 412,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,32; 1006,29</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,92</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 2,99</t>
+          <t>-8,16; 10,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 14,23</t>
+          <t>0,52; 23,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 4,62</t>
+          <t>-6,07; 13,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 12,32</t>
+          <t>1,39; 25,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 12,63</t>
+          <t>-1,05; 17,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 12,56</t>
+          <t>-2,78; 15,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 6,35</t>
+          <t>-1,44; 16,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,6</t>
+          <t>0,19; 23,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 6,81</t>
+          <t>-0,93; 12,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 15,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 11,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 19,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-42,49%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>210,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,87%</t>
+          <t>50,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>209,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>123,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>80,5%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>112,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>70,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>148,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,58; 69,36</t>
+          <t>-100,0; 601,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 255,9</t>
+          <t>-20,4; 1177,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,06; 95,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 192,2</t>
+          <t>-27,9; 1397,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 193,51</t>
+          <t>-20,91; 400,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 196,47</t>
+          <t>-31,12; 367,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 89,96</t>
+          <t>-19,98; 372,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 178,1</t>
+          <t>-10,67; 517,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 103,81</t>
+          <t>-16,88; 283,19</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 357,61</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,77; 276,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 439,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 7,61</t>
+          <t>-4,01; 12,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 9,44</t>
+          <t>-4,06; 13,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,17</t>
+          <t>-9,23; 3,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 8,93</t>
+          <t>-3,33; 14,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 11,09</t>
+          <t>-5,24; 12,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 11,44</t>
+          <t>-1,78; 18,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 6,55</t>
+          <t>-6,42; 12,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,63</t>
+          <t>-4,36; 15,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,32</t>
+          <t>-3,25; 10,56</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 13,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 6,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 12,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-63,03%</t>
+          <t>-39,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>37,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62,68%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53,46%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,16; 155,46</t>
+          <t>-49,33; 537,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 183,1</t>
+          <t>-51,44; 637,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,55; 17,9</t>
+          <t>-100,0; 309,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 118,11</t>
+          <t>-43,37; 726,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 135,47</t>
+          <t>-32,71; 174,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 159,05</t>
+          <t>-12,97; 250,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 85,03</t>
+          <t>-39,09; 163,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 134,28</t>
+          <t>-25,48; 200,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 58,52</t>
+          <t>-27,75; 147,98</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 189,33</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-46,77; 92,17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-12,18; 180,62</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 6,73</t>
+          <t>-7,19; 11,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 11,46</t>
+          <t>-8,36; 10,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 5,34</t>
+          <t>-12,36; 2,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 10,74</t>
+          <t>-9,35; 7,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 16,83</t>
+          <t>-11,33; 14,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 19,7</t>
+          <t>-5,25; 24,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 6,53</t>
+          <t>-6,75; 20,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 11,69</t>
+          <t>-10,2; 14,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 9,11</t>
+          <t>-5,19; 9,73</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 12,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 8,04</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 8,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-29,68%</t>
+          <t>-61,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>-13,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>56,49%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-63,91; 226,87</t>
+          <t>-70,82; 378,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 426,18</t>
+          <t>-75,03; 397,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,86; 260,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,17; 137,06</t>
+          <t>-88,84; 258,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 195,3</t>
+          <t>-65,63; 285,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 242,83</t>
+          <t>-39,44; 400,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 100,56</t>
+          <t>-45,36; 416,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 167,92</t>
+          <t>-64,96; 280,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 138,76</t>
+          <t>-42,55; 188,08</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-29,55; 244,17</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-59,44; 154,7</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-49,15; 156,3</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>10,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,74</t>
+          <t>-7,45; 4,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 9,7</t>
+          <t>-0,12; 22,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 13,32</t>
+          <t>-4,48; 12,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 10,69</t>
+          <t>-1,96; 23,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 8,37</t>
+          <t>-10,8; 24,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 5,94</t>
+          <t>-13,29; 17,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,22</t>
+          <t>-18,18; 10,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 7,72</t>
+          <t>-6,25; 41,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,75</t>
+          <t>-6,86; 13,62</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 13,86</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 7,66</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 27,89</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>139,95%</t>
+          <t>395,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>178,51%</t>
+          <t>109,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>300,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-24,85%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>-21,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>41,46%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>61,7%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-4,03%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>119,45%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +2245,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,48; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,32 +2255,47 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 148,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 136,82</t>
+          <t>-58,76; 437,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-73,3; 76,61</t>
+          <t>-66,09; 336,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 164,24</t>
+          <t>-82,57; 225,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 188,36</t>
+          <t>-46,65; 904,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 137,85</t>
+          <t>-54,54; 392,95</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-50,02; 339,49</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-76,17; 197,12</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-36,35; 631,41</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,58</t>
+          <t>-0,56; 12,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,76</t>
+          <t>0,45; 9,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,41</t>
+          <t>-4,3; 2,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,97</t>
+          <t>2,44; 16,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,98</t>
+          <t>0,81; 11,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,97</t>
+          <t>3,26; 12,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,6</t>
+          <t>0,02; 9,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,71</t>
+          <t>3,34; 15,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,95</t>
+          <t>1,45; 8,97</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 9,79</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 5,03</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 13,22</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>-12,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>141,95%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>65,32%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>110,13%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 90,3</t>
+          <t>-14,3; 266,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 141,76</t>
+          <t>1,59; 221,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 33,22</t>
+          <t>-61,55; 72,73</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 86,57</t>
+          <t>28,88; 389,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>16,03; 112,23</t>
+          <t>7,37; 148,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>8,42; 96,76</t>
+          <t>26,59; 175,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 67,46</t>
+          <t>-1,53; 131,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>18,91; 100,41</t>
+          <t>28,42; 206,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 55,8</t>
+          <t>14,11; 132,02</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>33,34; 152,45</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 77,81</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>51,47; 205,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
